--- a/documentacao/requisitos/Requisitos.xlsx
+++ b/documentacao/requisitos/Requisitos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PI\grupo9-ads\Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E46CBA-F0E6-47DB-B2A4-259D6057B932}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Funcionais" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Descrição</t>
   </si>
@@ -182,12 +181,18 @@
   </si>
   <si>
     <t>Ter api que controla a temperatura e umidade das geladeiras</t>
+  </si>
+  <si>
+    <t>RF13</t>
+  </si>
+  <si>
+    <t>Deve ter um site institucional explicando as funcionalidades da solução</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,6 +333,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,11 +681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,14 +876,20 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -952,7 +969,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C33 C2:C23" xr:uid="{D1C3E77C-7649-4BAF-936B-1CC1A2AF9EA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C33 C2:C23">
       <formula1>$F$1:$F$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -962,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1108,7 +1125,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{04C0F63B-1635-442D-94B6-997633ED140B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10">
       <formula1>$E$1:$E$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentacao/requisitos/Requisitos.xlsx
+++ b/documentacao/requisitos/Requisitos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\grupo9-ads\documentacao\requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitória Cristina\Desktop\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A62B6-75F5-402E-9896-B7E9B8A0C4C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Funcionais" sheetId="1" r:id="rId1"/>
-    <sheet name="Não Funcionais" sheetId="2" r:id="rId2"/>
+    <sheet name="Funcionais" sheetId="3" r:id="rId1"/>
+    <sheet name="Não Funcionais" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Descrição</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Registrar as temperaturas dos ambientes e armazenar em um banco de dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Deverá ser utilizado programação em arduino </t>
-  </si>
-  <si>
     <t>RNF01</t>
   </si>
   <si>
@@ -108,9 +106,6 @@
     <t>RNF09</t>
   </si>
   <si>
-    <t>Importante</t>
-  </si>
-  <si>
     <t>O site deverá ter conexão com o banco de dados para pesquisas</t>
   </si>
   <si>
@@ -120,9 +115,6 @@
     <t>Deverá ser utilizada a linguagem CSS para a construção do site</t>
   </si>
   <si>
-    <t>Deverá ser utilizada linguagem JavaScript para a constrão do site</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
@@ -132,9 +124,6 @@
     <t>A programação do simulador financeiro será em JavaScript</t>
   </si>
   <si>
-    <t>Deverá ser utilizado sensor de temperatura DHT11</t>
-  </si>
-  <si>
     <t>Projeto Farmácia</t>
   </si>
   <si>
@@ -165,35 +154,65 @@
     <t>Ao clicar no botão de logar, todos os campos devem estar preenchidos obrigatoriamente</t>
   </si>
   <si>
-    <t>O sistema deverá permitir 3 configurações diferentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desejável </t>
-  </si>
-  <si>
     <t>Ter configurado o projeto no GitHub</t>
   </si>
   <si>
     <t>A visualização dos dados deverá ser via web</t>
   </si>
   <si>
-    <t>Dados de temperatura e umidade deverão ser alocados na plataforma Azure</t>
-  </si>
-  <si>
-    <t>Ter api que controla a temperatura e umidade das geladeiras</t>
-  </si>
-  <si>
     <t>RF13</t>
   </si>
   <si>
     <t>Deve ter um site institucional explicando as funcionalidades da solução</t>
+  </si>
+  <si>
+    <t>O sistema deverá permitir 3 configurações de medicamentos diferentes</t>
+  </si>
+  <si>
+    <t>O site institucional deverá ser One Page</t>
+  </si>
+  <si>
+    <t>RF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O site institucional deverá ter um simulador finaceiro </t>
+  </si>
+  <si>
+    <t>O site institucional deverá ter uma tela com os integrantes da equipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No site privado os gráficos de temperatura e umidade deverão estar separados </t>
+  </si>
+  <si>
+    <t>No site privado deverá ter uma parte para contatar os desenvolvedores caso haja algum erro na transmissão de dados</t>
+  </si>
+  <si>
+    <t>RNF10</t>
+  </si>
+  <si>
+    <t>RNF11</t>
+  </si>
+  <si>
+    <t>RNF12</t>
+  </si>
+  <si>
+    <t>Os dados de temperatura e umidade deverão ser alocados na plataforma Azure</t>
+  </si>
+  <si>
+    <t>Deverá ser utilizada linguagem JavaScript para a construção do site</t>
+  </si>
+  <si>
+    <t>Deverá ser utilizado programação em arduino para os sensores</t>
+  </si>
+  <si>
+    <t>Deverá ser utilizado sensor de temperatura e umidade DHT11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,21 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,15 +243,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,12 +275,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,54 +289,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Ênfase1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -681,283 +743,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFA6BF8-9A3E-4444-9492-F7A2EFB0701C}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C28:C33 C3:C23">
+  <conditionalFormatting sqref="C24:C29 C3:C21">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"desejavel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C29 C2:C21" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
+      <formula1>$F$1:$F$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B3856E-DD8D-4670-BE01-99A966618F94}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A14:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"desejavel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"desejavel"</formula>
     </cfRule>
@@ -968,165 +1204,12 @@
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C33 C2:C23">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{C6F5360B-DB5B-4CA4-B863-AD2A5CE9B45D}">
+      <formula1>$E$1:$E$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C13" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
       <formula1>$F$1:$F$2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C3:C10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"desejável"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"importante"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"essencial"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10">
-      <formula1>$E$1:$E$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/documentacao/requisitos/Requisitos.xlsx
+++ b/documentacao/requisitos/Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitória Cristina\Desktop\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A62B6-75F5-402E-9896-B7E9B8A0C4C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E8D9EE-B9FC-4933-97DC-866177DB84AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcionais" sheetId="3" r:id="rId1"/>
@@ -73,15 +73,9 @@
     <t>RF12</t>
   </si>
   <si>
-    <t>Projeto Museu</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
-    <t>Registrar as temperaturas dos ambientes e armazenar em um banco de dados</t>
-  </si>
-  <si>
     <t>RNF01</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Projeto Farmácia</t>
   </si>
   <si>
-    <t>O software deve permitir que o funcionário veja a temperatura atual do refrigerador</t>
-  </si>
-  <si>
     <t>O software deve permitir que o farmacêutico compare temperaturas de dias passados</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
     <t>desejavel</t>
   </si>
   <si>
-    <t>O software deve permitir que o funcionário veja a umidade atual do refrigerador</t>
-  </si>
-  <si>
     <t>O software deve ter uma tela de login para pessoas autorizadas</t>
   </si>
   <si>
@@ -157,33 +145,12 @@
     <t>Ter configurado o projeto no GitHub</t>
   </si>
   <si>
-    <t>A visualização dos dados deverá ser via web</t>
-  </si>
-  <si>
-    <t>RF13</t>
-  </si>
-  <si>
     <t>Deve ter um site institucional explicando as funcionalidades da solução</t>
   </si>
   <si>
-    <t>O sistema deverá permitir 3 configurações de medicamentos diferentes</t>
-  </si>
-  <si>
-    <t>O site institucional deverá ser One Page</t>
-  </si>
-  <si>
-    <t>RF14</t>
-  </si>
-  <si>
     <t xml:space="preserve">O site institucional deverá ter um simulador finaceiro </t>
   </si>
   <si>
-    <t>O site institucional deverá ter uma tela com os integrantes da equipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No site privado os gráficos de temperatura e umidade deverão estar separados </t>
-  </si>
-  <si>
     <t>No site privado deverá ter uma parte para contatar os desenvolvedores caso haja algum erro na transmissão de dados</t>
   </si>
   <si>
@@ -206,6 +173,39 @@
   </si>
   <si>
     <t>Deverá ser utilizado sensor de temperatura e umidade DHT11</t>
+  </si>
+  <si>
+    <t>O software deve permitir que o funcionário veja a temperatura e umidade atual do refrigerador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deverá permitir pelo menos 3 configurações de temperatura de medicamentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A visualização dos dados deverá ser via aplicativo web responsivo </t>
+  </si>
+  <si>
+    <t>O site institucional pode ser One Page</t>
+  </si>
+  <si>
+    <t>O site institucional pode ter uma tela com os integrantes da equipe</t>
+  </si>
+  <si>
+    <t>O site deve apresentar os dados de temperatura e umidade em forma de gráficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No site privado os gráficos de temperatura e umidade podem estar separados </t>
+  </si>
+  <si>
+    <t>RNF04</t>
+  </si>
+  <si>
+    <t>RNF13</t>
+  </si>
+  <si>
+    <t>Projeto PharmaSensors</t>
+  </si>
+  <si>
+    <t>Deve armazenar temperatura e umidade em um banco de dados</t>
   </si>
 </sst>
 </file>
@@ -308,8 +308,29 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,37 +338,78 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Ênfase1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -744,24 +806,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFA6BF8-9A3E-4444-9492-F7A2EFB0701C}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A17:A19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
@@ -769,7 +831,7 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -778,221 +840,199 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>38</v>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>38</v>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>36</v>
+      <c r="B7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>37</v>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>37</v>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>36</v>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>37</v>
+      <c r="B11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>37</v>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>37</v>
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="4"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="4"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="15"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C24:C29 C3:C21">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="C22:C27 C3:C19">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"desejavel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C29 C2:C21" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C27 C2:C19" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
       <formula1>$F$1:$F$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1005,23 +1045,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B3856E-DD8D-4670-BE01-99A966618F94}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A14:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1036,130 +1076,146 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1172,43 +1228,65 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"desejável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"desejavel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"desejavel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+      <formula>"essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>"essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{C6F5360B-DB5B-4CA4-B863-AD2A5CE9B45D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 C14:C15" xr:uid="{C6F5360B-DB5B-4CA4-B863-AD2A5CE9B45D}">
       <formula1>$E$1:$E$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C13" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C15" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
       <formula1>$F$1:$F$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentacao/requisitos/Requisitos.xlsx
+++ b/documentacao/requisitos/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitória Cristina\Desktop\grupo9-ads\documentacao\requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teodoro\Desktop\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E8D9EE-B9FC-4933-97DC-866177DB84AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A6EE9-93F7-4419-9688-764008674042}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>Descrição</t>
   </si>
@@ -206,13 +206,25 @@
   </si>
   <si>
     <t>Deve armazenar temperatura e umidade em um banco de dados</t>
+  </si>
+  <si>
+    <t>RF13</t>
+  </si>
+  <si>
+    <t>Ter planliha interna para cadastro de futuros clientes</t>
+  </si>
+  <si>
+    <t>RNF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os dados de cadastro de novos clientes deverá ser feito internamente </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +249,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -289,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,24 +352,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Ênfase1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -806,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFA6BF8-9A3E-4444-9492-F7A2EFB0701C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,16 +873,16 @@
     <col min="3" max="3" width="17.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -840,7 +895,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,7 +906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -862,7 +917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -873,7 +928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -884,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -895,7 +950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -906,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -917,7 +972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -928,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -939,7 +994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -949,8 +1004,9 @@
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -961,7 +1017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -972,12 +1028,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="14"/>
@@ -1021,13 +1083,13 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="C22:C27 C3:C19">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"desejavel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1037,7 +1099,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1045,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B3856E-DD8D-4670-BE01-99A966618F94}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,11 +1119,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1100,7 +1162,7 @@
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1111,7 +1173,7 @@
       <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1122,7 +1184,7 @@
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1133,7 +1195,7 @@
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1144,7 +1206,7 @@
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1155,7 +1217,7 @@
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1218,7 +1280,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1228,8 +1298,19 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C10">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>"desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>"importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>"essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
-      <formula>"desejável"</formula>
+      <formula>"desejavel"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"importante"</formula>
@@ -1238,7 +1319,7 @@
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"desejavel"</formula>
     </cfRule>
@@ -1249,31 +1330,31 @@
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>"desejavel"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>"essencial"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"desejável"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"importante"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"desejável"</formula>
+      <formula>"desejavel"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"importante"</formula>
@@ -1286,7 +1367,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 C14:C15" xr:uid="{C6F5360B-DB5B-4CA4-B863-AD2A5CE9B45D}">
       <formula1>$E$1:$E$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C15" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C16" xr:uid="{5C488CB7-DA63-4D28-85F8-3F7BD819D4E8}">
       <formula1>$F$1:$F$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentacao/requisitos/Requisitos.xlsx
+++ b/documentacao/requisitos/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teodoro\Desktop\grupo9-ads\documentacao\requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitória Cristina\Desktop\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A6EE9-93F7-4419-9688-764008674042}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8A7542-FC85-401A-B5A5-01D1E52ED266}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,13 +211,13 @@
     <t>RF13</t>
   </si>
   <si>
-    <t>Ter planliha interna para cadastro de futuros clientes</t>
-  </si>
-  <si>
     <t>RNF14</t>
   </si>
   <si>
-    <t xml:space="preserve">Os dados de cadastro de novos clientes deverá ser feito internamente </t>
+    <t xml:space="preserve">Ter tela para cadastro interno  </t>
+  </si>
+  <si>
+    <t>Os dados da telad e cadastro devem ser feitos internamente</t>
   </si>
 </sst>
 </file>
@@ -358,15 +358,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFA6BF8-9A3E-4444-9492-F7A2EFB0701C}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,11 +874,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
@@ -1004,7 +1004,7 @@
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1032,8 +1032,8 @@
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>61</v>
+      <c r="B15" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>33</v>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,11 +1119,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1280,10 +1280,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -1372,5 +1372,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentacao/requisitos/Requisitos.xlsx
+++ b/documentacao/requisitos/Requisitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitória Cristina\Desktop\grupo9-ads\documentacao\requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Desktop\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8A7542-FC85-401A-B5A5-01D1E52ED266}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDD9C60-F41C-4C52-A063-D976CFA54A72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Ter tela para cadastro interno  </t>
   </si>
   <si>
-    <t>Os dados da telad e cadastro devem ser feitos internamente</t>
+    <t>Os dados da tela de cadastro devem ser feitos internamente</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +295,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -309,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,15 +372,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Ênfase1" xfId="1" builtinId="31"/>
@@ -863,22 +877,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFA6BF8-9A3E-4444-9492-F7A2EFB0701C}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="80.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
@@ -905,6 +920,7 @@
       <c r="C3" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -916,6 +932,7 @@
       <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -927,6 +944,7 @@
       <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -938,6 +956,7 @@
       <c r="C6" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -949,6 +968,7 @@
       <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -960,6 +980,7 @@
       <c r="C8" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -971,6 +992,7 @@
       <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -982,6 +1004,7 @@
       <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -993,6 +1016,7 @@
       <c r="C11" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1004,6 +1028,7 @@
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D12" s="23"/>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,6 +1041,7 @@
       <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1027,6 +1053,7 @@
       <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1038,6 +1065,7 @@
       <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1105,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B3856E-DD8D-4670-BE01-99A966618F94}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,16 +1144,17 @@
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1136,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1175,9 @@
       <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1157,8 +1187,9 @@
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -1168,8 +1199,9 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1190,8 +1223,9 @@
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1201,8 +1235,9 @@
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -1212,8 +1247,9 @@
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1223,8 +1259,9 @@
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1234,8 +1271,9 @@
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -1245,8 +1283,9 @@
       <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -1256,8 +1295,9 @@
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -1267,8 +1307,9 @@
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
@@ -1278,17 +1319,19 @@
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>33</v>
       </c>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
